--- a/Data/mari_area_algae_province.xlsx
+++ b/Data/mari_area_algae_province.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Iwen\SFG\China\China Data Spreadsheets (by data)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AquaFish\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10422" windowHeight="5430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19992" windowHeight="9720" firstSheet="25" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="38" r:id="rId1"/>
@@ -45,17 +45,16 @@
     <sheet name="1985" sheetId="28" r:id="rId31"/>
     <sheet name="1984" sheetId="29" r:id="rId32"/>
     <sheet name="1983" sheetId="30" r:id="rId33"/>
-    <sheet name="1982" sheetId="31" r:id="rId34"/>
-    <sheet name="1981" sheetId="32" r:id="rId35"/>
-    <sheet name="1980" sheetId="33" r:id="rId36"/>
-    <sheet name="1979" sheetId="34" r:id="rId37"/>
+    <sheet name="1981" sheetId="32" r:id="rId34"/>
+    <sheet name="1980" sheetId="33" r:id="rId35"/>
+    <sheet name="1979" sheetId="34" r:id="rId36"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2799" uniqueCount="657">
   <si>
     <t>6</t>
   </si>
@@ -2031,7 +2030,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2347,13 +2346,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -2400,12 +2399,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2419,7 +2418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2445,12 +2444,12 @@
         <v>13484</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2575,7 +2574,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2657,9 +2656,9 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3035,7 +3034,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3236,9 +3235,9 @@
       <selection activeCell="G1" sqref="G1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3379,7 +3378,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3426,7 +3425,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3473,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3614,7 +3613,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3815,9 +3814,9 @@
       <selection activeCell="G1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -3864,7 +3863,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4074,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -4115,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -4327,9 +4326,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4387,7 +4386,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4441,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4467,7 +4466,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4604,7 +4603,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4667,9 +4666,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -4686,7 +4685,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4703,7 +4702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4737,7 +4736,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -4805,7 +4804,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4886,9 +4885,9 @@
       <selection activeCell="A12" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4927,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4941,7 +4940,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4952,7 +4951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5003,7 +5002,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5069,9 +5068,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5105,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5139,7 +5138,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5173,7 +5172,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5224,7 +5223,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5241,7 +5240,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5288,9 +5287,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5324,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5375,7 +5374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5409,7 +5408,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5443,7 +5442,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5460,7 +5459,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5507,9 +5506,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5537,7 +5536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -5577,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5611,7 +5610,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -5645,7 +5644,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -5694,9 +5693,9 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -5713,7 +5712,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -5730,7 +5729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5764,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5798,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5815,7 +5814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5849,7 +5848,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -5900,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -5927,12 +5926,12 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -5979,12 +5978,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5998,7 +5997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -6024,12 +6023,12 @@
         <v>11425</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -6052,7 +6051,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -6113,7 +6112,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6189,7 +6188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6233,9 +6232,9 @@
       <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6277,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6291,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6333,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -6367,7 +6366,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -6384,7 +6383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -6409,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -6433,9 +6432,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -6477,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6491,7 +6490,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -6505,7 +6504,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -6533,7 +6532,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -6588,9 +6587,9 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -6604,7 +6603,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6655,7 +6654,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -6663,7 +6662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -6671,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -6693,7 +6692,7 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -6715,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6729,7 +6728,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -6737,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -6759,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -6767,7 +6766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6786,7 +6785,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -6802,7 +6801,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>491</v>
       </c>
@@ -6834,7 +6833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -6842,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>493</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>494</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>495</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>496</v>
       </c>
@@ -6887,9 +6886,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -6923,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6957,7 +6956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7025,7 +7024,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7042,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -7093,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -7123,9 +7122,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -7139,7 +7138,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -7153,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -7237,7 +7236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7293,7 +7292,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -7335,7 +7334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -7349,7 +7348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -7363,7 +7362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -7377,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7405,7 +7404,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -7433,7 +7432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -7475,7 +7474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>493</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>494</v>
       </c>
@@ -7517,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>495</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>496</v>
       </c>
@@ -7558,9 +7557,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>656</v>
       </c>
@@ -7574,7 +7573,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -7585,7 +7584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7607,7 +7606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -7618,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -7629,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7643,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -7654,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -7676,7 +7675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -7715,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -7729,7 +7728,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -7740,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -7754,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -7765,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -7787,7 +7786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -7798,7 +7797,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -7831,7 +7830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -7853,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>491</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -7875,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>493</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>494</v>
       </c>
@@ -7897,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>495</v>
       </c>
@@ -7908,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>496</v>
       </c>
@@ -7932,9 +7931,9 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>656</v>
       </c>
@@ -7948,7 +7947,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7976,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -8018,7 +8017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -8046,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -8060,7 +8059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -8116,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -8130,7 +8129,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>493</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>494</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>495</v>
       </c>
@@ -8340,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>496</v>
       </c>
@@ -8367,9 +8366,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>656</v>
       </c>
@@ -8383,7 +8382,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -8397,7 +8396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8411,7 +8410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8425,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -8439,7 +8438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -8453,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -8495,7 +8494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8509,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8537,7 +8536,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -8565,7 +8564,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -8579,7 +8578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -8593,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -8607,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -8635,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -8663,7 +8662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -8691,7 +8690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -8705,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -8729,9 +8728,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -8745,7 +8744,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8773,7 +8772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -8801,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -8829,7 +8828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -8843,7 +8842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -8857,7 +8856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -8899,7 +8898,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -8941,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -8955,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -8969,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -8983,7 +8982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -8997,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -9011,7 +9010,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -9039,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>488</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -9067,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -9081,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>491</v>
       </c>
@@ -9095,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>493</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>494</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>495</v>
       </c>
@@ -9151,7 +9150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>496</v>
       </c>
@@ -9178,9 +9177,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -9194,7 +9193,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -9208,7 +9207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -9292,7 +9291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -9306,7 +9305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9320,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -9362,7 +9361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -9376,7 +9375,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -9404,7 +9403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -9418,7 +9417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -9432,7 +9431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -9474,7 +9473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -9488,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>489</v>
       </c>
@@ -9502,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>490</v>
       </c>
@@ -9516,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>491</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>493</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>494</v>
       </c>
@@ -9572,7 +9571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>495</v>
       </c>
@@ -9595,13 +9594,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -9648,12 +9645,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9667,7 +9664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9693,12 +9690,12 @@
         <v>8345</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -9721,7 +9718,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9753,7 +9750,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -9785,7 +9782,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -9817,7 +9814,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -9858,7 +9855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -9875,7 +9872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -9908,9 +9905,9 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -9924,7 +9921,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -9932,7 +9929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9948,7 +9945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -9956,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -9964,7 +9961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9975,7 +9972,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -9983,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -9991,7 +9988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -9999,7 +9996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10013,7 +10010,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10027,7 +10024,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -10035,7 +10032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -10049,7 +10046,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -10057,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -10071,7 +10068,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -10079,7 +10076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -10087,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -10095,7 +10092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -10106,7 +10103,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -10114,7 +10111,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -10122,7 +10119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>489</v>
       </c>
@@ -10130,7 +10127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>490</v>
       </c>
@@ -10138,7 +10135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>491</v>
       </c>
@@ -10146,7 +10143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -10154,7 +10151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>493</v>
       </c>
@@ -10162,7 +10159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>494</v>
       </c>
@@ -10170,7 +10167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>495</v>
       </c>
@@ -10178,7 +10175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>496</v>
       </c>
@@ -10202,9 +10199,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -10218,7 +10215,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -10226,7 +10223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10234,7 +10231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10242,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10253,7 +10250,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10261,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10275,7 +10272,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -10289,7 +10286,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -10303,7 +10300,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -10314,7 +10311,7 @@
         <v>8.09</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -10325,7 +10322,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -10349,9 +10346,9 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -10365,7 +10362,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -10382,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -10399,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -10416,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -10433,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10450,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10467,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -10484,7 +10481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -10501,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -10518,7 +10515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -10548,12 +10545,12 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.05078125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -10567,7 +10564,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -10575,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10583,7 +10580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10591,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -10599,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -10607,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -10618,7 +10615,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -10626,7 +10623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -10634,7 +10631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -10642,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -10656,7 +10653,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -10670,12 +10667,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -10689,12 +10686,12 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -10705,22 +10702,22 @@
         <v>7.97</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -10731,7 +10728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -10739,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -10747,7 +10744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>620</v>
       </c>
@@ -10755,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>489</v>
       </c>
@@ -10763,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>490</v>
       </c>
@@ -10771,7 +10768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>491</v>
       </c>
@@ -10779,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>492</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>493</v>
       </c>
@@ -10798,7 +10795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>494</v>
       </c>
@@ -10809,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>495</v>
       </c>
@@ -10820,7 +10817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>496</v>
       </c>
@@ -10838,12 +10835,343 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>624</v>
+      </c>
+      <c r="C14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>485</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>491</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>492</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>494</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>495</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>496</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10852,11 +11180,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -10867,7 +11197,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>425</v>
       </c>
@@ -10878,7 +11208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10889,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10900,7 +11230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>479</v>
       </c>
@@ -10911,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -10922,18 +11252,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>481</v>
       </c>
@@ -10944,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>482</v>
       </c>
@@ -10955,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -10966,29 +11296,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C11" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="C12" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>483</v>
       </c>
@@ -10999,18 +11329,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="C14" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>484</v>
       </c>
@@ -11021,18 +11351,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>485</v>
       </c>
@@ -11043,7 +11373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>486</v>
       </c>
@@ -11054,7 +11384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -11065,7 +11395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -11073,10 +11403,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -11087,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>488</v>
       </c>
@@ -11098,7 +11428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>489</v>
       </c>
@@ -11109,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>490</v>
       </c>
@@ -11120,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>491</v>
       </c>
@@ -11131,7 +11461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>492</v>
       </c>
@@ -11142,7 +11472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>493</v>
       </c>
@@ -11153,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>494</v>
       </c>
@@ -11164,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>495</v>
       </c>
@@ -11175,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>496</v>
       </c>
@@ -11195,358 +11525,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>630</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>631</v>
-      </c>
-      <c r="C11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>632</v>
-      </c>
-      <c r="C12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>483</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>633</v>
-      </c>
-      <c r="C14" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>634</v>
-      </c>
-      <c r="C16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>485</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>486</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>487</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>488</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>489</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>490</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>491</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>492</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>493</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>494</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>495</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>496</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
-  <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -11557,7 +11542,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>488</v>
       </c>
@@ -11568,7 +11553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>489</v>
       </c>
@@ -11579,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>490</v>
       </c>
@@ -11590,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>491</v>
       </c>
@@ -11601,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>492</v>
       </c>
@@ -11612,7 +11597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -11623,7 +11608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>494</v>
       </c>
@@ -11634,7 +11619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>495</v>
       </c>
@@ -11645,7 +11630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>496</v>
       </c>
@@ -11656,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>485</v>
       </c>
@@ -11667,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>486</v>
       </c>
@@ -11678,7 +11663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>487</v>
       </c>
@@ -11689,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -11700,7 +11685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -11711,7 +11696,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -11722,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -11733,7 +11718,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -11744,7 +11729,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>483</v>
       </c>
@@ -11755,7 +11740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -11766,7 +11751,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>484</v>
       </c>
@@ -11777,7 +11762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -11788,7 +11773,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>425</v>
       </c>
@@ -11799,7 +11784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -11810,7 +11795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -11821,7 +11806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>479</v>
       </c>
@@ -11832,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>480</v>
       </c>
@@ -11843,7 +11828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -11854,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>481</v>
       </c>
@@ -11865,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>482</v>
       </c>
@@ -11889,9 +11874,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -11938,12 +11923,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -11954,7 +11939,7 @@
         <v>9521</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -11980,12 +11965,12 @@
         <v>6714</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12011,7 +11996,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12043,7 +12028,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -12075,7 +12060,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -12107,7 +12092,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -12151,7 +12136,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -12168,7 +12153,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -12201,9 +12186,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -12250,7 +12235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -12258,7 +12243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12269,7 +12254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12292,7 +12277,7 @@
         <v>8858</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -12303,7 +12288,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12329,7 +12314,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12361,7 +12346,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -12393,7 +12378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -12422,7 +12407,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -12463,7 +12448,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -12480,7 +12465,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -12513,9 +12498,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -12562,12 +12547,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12587,7 +12572,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12613,12 +12598,12 @@
         <v>9654</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12644,7 +12629,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12676,7 +12661,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -12708,7 +12693,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -12746,7 +12731,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -12781,7 +12766,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -12798,7 +12783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -12831,9 +12816,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -12880,13 +12865,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -12898,7 +12883,7 @@
         <v>2582</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -12924,13 +12909,13 @@
         <v>9292</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12959,7 +12944,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12991,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -13023,7 +13008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -13061,7 +13046,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -13099,7 +13084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -13114,7 +13099,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -13148,9 +13133,9 @@
       <selection activeCell="B1" sqref="B1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -13197,7 +13182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13244,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13291,7 +13276,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -13338,7 +13323,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13385,7 +13370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -13432,7 +13417,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13479,7 +13464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -13526,7 +13511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -13573,7 +13558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -13620,7 +13605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -13667,7 +13652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -13727,9 +13712,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>654</v>
       </c>
@@ -13776,7 +13761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -13823,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -13870,7 +13855,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -13917,7 +13902,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -13964,7 +13949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -14011,7 +13996,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14058,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -14105,7 +14090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -14152,7 +14137,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -14199,7 +14184,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -14246,7 +14231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
